--- a/Expr1d/Expr_2.xlsx
+++ b/Expr1d/Expr_2.xlsx
@@ -1,176 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5F737-4FEB-DA42-A2BD-843C36FD4CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
-    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LossRecord" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>SEED</t>
-  </si>
-  <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
-  </si>
-  <si>
-    <t>Save_Path</t>
-  </si>
-  <si>
-    <t>Batch_size</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t>Sub_number</t>
-  </si>
-  <si>
-    <t>Scale_Coeff</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>mscalenn2</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/freq_1d/mu_70/test_loader.pt</t>
-  </si>
-  <si>
-    <t>Result/Expr1_2</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>0,2000,5000</t>
-  </si>
-  <si>
-    <t>Layer_Set</t>
-  </si>
-  <si>
-    <t>Act_Set</t>
-  </si>
-  <si>
-    <t>Ini_Set</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>1,150,150,150,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <b val="1"/>
       <sz val="12"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,31 +90,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -225,16 +131,75 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -543,102 +512,145 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="11" max="11" width="27" style="2" customWidth="1"/>
+    <col width="27" customWidth="1" style="2" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SEED</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Train_Dataset</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Valid_Dataset</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Test_Dataset</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Save_Path</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Batch_size</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Sub_number</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Scale_Coeff</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Con_record</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>mscalenn2</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/train_loader.pt</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/val_loader.pt</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>data/freq_1d/mu_70/test_loader.pt</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Result/Expr1_2</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>256</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5200</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="M3" s="5"/>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>0,2000,5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="M3" s="5" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,43 +659,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="b">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Layer_Set</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Act_Set</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Ini_Set</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1,150,150,150,1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>phi,phi,phi</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>xavier_uniform</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -691,22 +720,225 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>train_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>valid_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>test_loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.2761687061616352</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.2872225567698479</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.2709651589393616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.05258845511291708</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.05266910046339035</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.04703477956354618</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.03953025223953383</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.03728548530489206</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.03465772233903408</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.03679634337978704</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.03261515265330672</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.03153636492788792</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.03452335244842938</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.03112617693841457</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.02910448610782623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.030553392400699</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.02665665978565812</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.02367431856691837</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.0271784302645496</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.02232899377122521</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.02102147974073887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.02263287148837532</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.01796514494344592</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.01734426990151405</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.01834315207919904</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.01414633588865399</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.01345132198184729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.01647830408598696</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.01315070688724518</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.01236862130463123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.01602210230859263</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.01236806088127196</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.01201298553496599</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.01509653444268874</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.01115000294521451</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.01075121201574802</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.01360181286664946</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.009992345701903105</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.009422782342880964</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01054063931639705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.008586084935814142</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.007562550250440836</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Expr1d/Expr_2.xlsx
+++ b/Expr1d/Expr_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="760" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
@@ -712,10 +712,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -785,157 +785,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n">
+      <c r="A5" t="n">
         <v>300</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>0.03679634337978704</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>0.03261515265330672</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>0.03153636492788792</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.03452335244842938</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.03112617693841457</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.02910448610782623</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.030553392400699</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.02665665978565812</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.02367431856691837</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0271784302645496</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.02232899377122521</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.02102147974073887</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.02263287148837532</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.01796514494344592</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.01734426990151405</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.01834315207919904</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.01414633588865399</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.01345132198184729</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.01647830408598696</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.01315070688724518</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.01236862130463123</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.01602210230859263</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.01236806088127196</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.01201298553496599</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.01509653444268874</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.01115000294521451</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.01075121201574802</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.01360181286664946</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0.009992345701903105</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.009422782342880964</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.01054063931639705</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.008586084935814142</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.007562550250440836</v>
       </c>
     </row>
   </sheetData>

--- a/Expr1d/Expr_2.xlsx
+++ b/Expr1d/Expr_2.xlsx
@@ -1,73 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F341BD-867B-8649-8768-920E64166AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="760" windowWidth="28800" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="120" yWindow="760" windowWidth="28800" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SET" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subnet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LossRecord" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SET" sheetId="1" r:id="rId1"/>
+    <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
+    <sheet name="LossRecord" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>Train_Dataset</t>
+  </si>
+  <si>
+    <t>Valid_Dataset</t>
+  </si>
+  <si>
+    <t>Test_Dataset</t>
+  </si>
+  <si>
+    <t>Save_Path</t>
+  </si>
+  <si>
+    <t>Batch_size</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Sub_number</t>
+  </si>
+  <si>
+    <t>Scale_Coeff</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Con_record</t>
+  </si>
+  <si>
+    <t>mscalenn2</t>
+  </si>
+  <si>
+    <t>data/freq_1d/mu_70/train_loader.pt</t>
+  </si>
+  <si>
+    <t>data/freq_1d/mu_70/val_loader.pt</t>
+  </si>
+  <si>
+    <t>data/freq_1d/mu_70/test_loader.pt</t>
+  </si>
+  <si>
+    <t>Result/Expr1_2</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>0,2000,5000</t>
+  </si>
+  <si>
+    <t>Layer_Set</t>
+  </si>
+  <si>
+    <t>Act_Set</t>
+  </si>
+  <si>
+    <t>Ini_Set</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>1,150,150,150,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
+    <t>xavier_uniform</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="4"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,40 +192,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -131,75 +224,16 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -499,11 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -512,145 +542,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="27" customWidth="1" style="2" min="11" max="11"/>
+    <col min="11" max="11" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>SEED</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Train_Dataset</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>Valid_Dataset</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>Test_Dataset</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>Save_Path</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>Batch_size</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>Epoch</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>Sub_number</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>Scale_Coeff</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Con_record</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>mscalenn2</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C2" s="0" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>data/freq_1d/mu_70/train_loader.pt</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>data/freq_1d/mu_70/val_loader.pt</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>data/freq_1d/mu_70/test_loader.pt</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>Result/Expr1_2</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>256</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>5200</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>16</v>
       </c>
-      <c r="L2" s="0" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>0,2000,5000</t>
-        </is>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="M3" s="5" t="n"/>
+    <row r="3" spans="1:13">
+      <c r="M3" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -659,146 +646,66 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Layer_Set</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Act_Set</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Ini_Set</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Residual</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>1,150,150,150,1</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>phi,phi,phi</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>xavier_uniform</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="b">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>epoch</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>train_loss</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>valid_loss</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>test_loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.2761687061616352</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.2872225567698479</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.2709651589393616</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.05258845511291708</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.05266910046339035</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.04703477956354618</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.03953025223953383</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.03728548530489206</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.03465772233903408</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>300</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03679634337978704</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03261515265330672</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03153636492788792</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Expr1d/Expr_2.xlsx
+++ b/Expr1d/Expr_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5F737-4FEB-DA42-A2BD-843C36FD4CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ADF93D-1CDD-8B4E-8653-3979D75EA8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="2720" windowWidth="28800" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="2720" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>test_loss</t>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +161,13 @@
       <b/>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
     </font>
@@ -202,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +229,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -546,7 +559,7 @@
     <col min="11" max="11" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +599,11 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -627,8 +643,11 @@
       <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="N2" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="M3" s="5"/>
     </row>
   </sheetData>
@@ -685,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
